--- a/DH307_Dashboard_Code_V20.xlsx
+++ b/DH307_Dashboard_Code_V20.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thing\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1DF63AC3-1D3A-4162-B541-D963DC40A232}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21544086-9FD5-469B-B3C5-0219756C0228}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="24" activeTab="26" xr2:uid="{16B8DE37-4794-4067-AB8B-C66E46502E76}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="24" activeTab="24" xr2:uid="{16B8DE37-4794-4067-AB8B-C66E46502E76}"/>
   </bookViews>
   <sheets>
     <sheet name="dis1_Region" sheetId="1" r:id="rId1"/>
@@ -66,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1415" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1415" uniqueCount="101">
   <si>
     <t>Region</t>
   </si>
@@ -327,9 +327,6 @@
   </si>
   <si>
     <t>Jan-Year 2</t>
-  </si>
-  <si>
-    <t>Feb-Year2</t>
   </si>
   <si>
     <t>Apr-Year 2</t>
@@ -10280,8 +10277,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC04ECC5-4FEB-498A-B9C0-895B56273FD8}">
   <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:A11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10316,7 +10313,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="12" t="s">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="B4" s="7">
         <v>12</v>
@@ -10324,7 +10321,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="12" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B5" s="7">
         <v>0</v>
@@ -10332,7 +10329,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="12" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B6" s="7">
         <v>5</v>
@@ -10340,7 +10337,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="12" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B7" s="7">
         <v>10</v>
@@ -10348,7 +10345,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="12" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B8" s="7">
         <v>6</v>
@@ -10356,7 +10353,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="12" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B9" s="7">
         <v>15</v>
@@ -10364,7 +10361,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="12" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B10" s="7">
         <v>82</v>
@@ -10372,7 +10369,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="12" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B11" s="7">
         <v>62</v>
@@ -10415,7 +10412,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="12" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B3" s="7">
         <v>52</v>
@@ -10423,7 +10420,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="12" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B4" s="7">
         <v>49</v>
@@ -10431,7 +10428,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="12" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B5" s="7">
         <v>45</v>
@@ -10447,7 +10444,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="12" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B7" s="7">
         <v>17</v>
@@ -10455,7 +10452,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="12" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B8" s="7">
         <v>5</v>
@@ -10463,7 +10460,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="12" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B9" s="7">
         <v>0</v>
@@ -10471,7 +10468,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="12" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B10" s="7">
         <v>5</v>
@@ -10479,7 +10476,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="12" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B11" s="7">
         <v>10</v>
@@ -10487,7 +10484,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="12" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B12" s="7">
         <v>4</v>
@@ -10495,7 +10492,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="12" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B13" s="7">
         <v>5</v>
@@ -10503,7 +10500,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="12" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B14" s="7">
         <v>8</v>
@@ -10511,7 +10508,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="12" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B15" s="7">
         <v>12</v>
@@ -10519,7 +10516,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" s="12" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B16" s="7">
         <v>5</v>
@@ -10527,7 +10524,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="12" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B17" s="7">
         <v>7</v>
@@ -10543,12 +10540,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D8B0E34-EBB1-4A35-9368-AFE6085B644E}">
   <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A10" sqref="A10:A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="1" max="1" width="24.44140625" customWidth="1"/>
     <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -10562,7 +10560,7 @@
     </row>
     <row r="2" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="12" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B2" s="7">
         <v>72</v>
@@ -10570,7 +10568,7 @@
     </row>
     <row r="3" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="12" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B3" s="7">
         <v>32</v>
@@ -10586,7 +10584,7 @@
     </row>
     <row r="5" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="12" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B5" s="7">
         <v>21</v>
@@ -10594,7 +10592,7 @@
     </row>
     <row r="6" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="12" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B6" s="7">
         <v>6</v>
@@ -10602,7 +10600,7 @@
     </row>
     <row r="7" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="12" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B7" s="7">
         <v>3</v>
@@ -10610,7 +10608,7 @@
     </row>
     <row r="8" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="12" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B8" s="7">
         <v>10</v>
@@ -10618,7 +10616,7 @@
     </row>
     <row r="9" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A9" s="12" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B9" s="7">
         <v>8</v>
@@ -10626,7 +10624,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="12" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B10" s="7">
         <v>7</v>
@@ -10634,7 +10632,7 @@
     </row>
     <row r="11" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A11" s="12" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B11" s="7">
         <v>1</v>
